--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E730EB-4EFC-444C-84AA-387B03ACA70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F695EA-9959-451C-8784-8EE3BA38715C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="57">
   <si>
     <t>IV2011003</t>
   </si>
@@ -732,7 +732,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,12 +751,6 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -769,7 +763,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1589,7 +1586,7 @@
       <c r="G17" s="3">
         <v>175.87</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>11255.68</v>
       </c>
     </row>
@@ -1615,7 +1612,7 @@
       <c r="G18" s="3">
         <v>173.08</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>16615.68</v>
       </c>
     </row>
@@ -1641,7 +1638,7 @@
       <c r="G19" s="3">
         <v>158.21</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>22149.4</v>
       </c>
     </row>
@@ -1667,7 +1664,7 @@
       <c r="G20" s="3">
         <v>184.56</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>13288.32</v>
       </c>
     </row>
@@ -1693,7 +1690,7 @@
       <c r="G21" s="3">
         <v>208.99</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>7523.64</v>
       </c>
     </row>
@@ -1719,7 +1716,7 @@
       <c r="G22" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="11">
         <f t="shared" ref="H22:H45" si="0">F22*G22</f>
         <v>32223.519999999997</v>
       </c>
@@ -1746,7 +1743,7 @@
       <c r="G23" s="3">
         <v>288.70999999999998</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>27716.159999999996</v>
       </c>
@@ -1773,7 +1770,7 @@
       <c r="G24" s="3">
         <v>175.87</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>5627.84</v>
       </c>
@@ -1800,7 +1797,7 @@
       <c r="G25" s="3">
         <v>182.93</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>14634.400000000001</v>
       </c>
@@ -1827,7 +1824,7 @@
       <c r="G26" s="3">
         <v>97.7</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>10942.4</v>
       </c>
@@ -1854,7 +1851,7 @@
       <c r="G27" s="3">
         <v>158.21</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>13289.640000000001</v>
       </c>
@@ -1881,7 +1878,7 @@
       <c r="G28" s="3">
         <v>194.71</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>98133.840000000011</v>
       </c>
@@ -1908,7 +1905,7 @@
       <c r="G29" s="3">
         <v>150</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
@@ -1935,7 +1932,7 @@
       <c r="G30" s="3">
         <v>181.43</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>8708.64</v>
       </c>
@@ -1962,7 +1959,7 @@
       <c r="G31" s="3">
         <v>181.55</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>8714.4000000000015</v>
       </c>
@@ -1989,7 +1986,7 @@
       <c r="G32" s="3">
         <v>97.7</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>16413.600000000002</v>
       </c>
@@ -2016,7 +2013,7 @@
       <c r="G33" s="3">
         <v>158.21</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>5062.72</v>
       </c>
@@ -2043,7 +2040,7 @@
       <c r="G34" s="3">
         <v>184.56</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>42079.68</v>
       </c>
@@ -2070,7 +2067,7 @@
       <c r="G35" s="3">
         <v>150</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
@@ -2097,7 +2094,7 @@
       <c r="G36" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
         <v>64447.039999999994</v>
       </c>
@@ -2124,7 +2121,7 @@
       <c r="G37" s="3">
         <v>288.70999999999998</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
         <v>78529.119999999995</v>
       </c>
@@ -2151,7 +2148,7 @@
       <c r="G38" s="3">
         <v>97.7</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="11">
         <f t="shared" si="0"/>
         <v>27356</v>
       </c>
@@ -2178,7 +2175,7 @@
       <c r="G39" s="3">
         <v>194.71</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
         <v>31153.600000000002</v>
       </c>
@@ -2205,7 +2202,7 @@
       <c r="G40" s="3">
         <v>184.56</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="11">
         <f t="shared" si="0"/>
         <v>31006.080000000002</v>
       </c>
@@ -2232,7 +2229,7 @@
       <c r="G41" s="3">
         <v>150</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="11">
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
@@ -2259,7 +2256,7 @@
       <c r="G42" s="3">
         <v>143.21</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="11">
         <f t="shared" si="0"/>
         <v>20049.400000000001</v>
       </c>
@@ -2286,7 +2283,7 @@
       <c r="G43" s="3">
         <v>142.44999999999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="11">
         <f t="shared" si="0"/>
         <v>79772</v>
       </c>
@@ -2313,7 +2310,7 @@
       <c r="G44" s="3">
         <v>157.30000000000001</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="11">
         <f t="shared" si="0"/>
         <v>75504</v>
       </c>
@@ -2340,7 +2337,7 @@
       <c r="G45" s="3">
         <v>184.56</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="11">
         <f t="shared" si="0"/>
         <v>37650.239999999998</v>
       </c>
@@ -2355,7 +2352,7 @@
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2367,7 +2364,7 @@
       <c r="G46" s="3">
         <v>171.9</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="4">
         <v>27504</v>
       </c>
     </row>
@@ -2381,7 +2378,7 @@
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2393,7 +2390,7 @@
       <c r="G47" s="3">
         <v>171.9</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="4">
         <v>27504</v>
       </c>
     </row>
@@ -2419,7 +2416,7 @@
       <c r="G48" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="4">
         <v>36826.879999999997</v>
       </c>
     </row>
@@ -2445,7 +2442,7 @@
       <c r="G49" s="3">
         <v>158.21</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="4">
         <v>8859.76</v>
       </c>
     </row>
@@ -2471,7 +2468,7 @@
       <c r="G50" s="3">
         <v>194.71</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="4">
         <v>62307.199999999997</v>
       </c>
     </row>
@@ -2497,7 +2494,7 @@
       <c r="G51" s="3">
         <v>184.56</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="4">
         <v>37650.239999999998</v>
       </c>
     </row>
@@ -2523,7 +2520,7 @@
       <c r="G52" s="3">
         <v>208.99</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="4">
         <v>2507.88</v>
       </c>
     </row>
@@ -2549,12 +2546,12 @@
       <c r="G53" s="3">
         <v>218.45</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="4">
         <v>108351.2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>44147</v>
       </c>
       <c r="B54" t="s">
@@ -2566,21 +2563,21 @@
       <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="9">
         <v>160</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="9">
         <v>171.9</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="10">
         <v>27504</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>44147</v>
       </c>
       <c r="B55" t="s">
@@ -2592,21 +2589,21 @@
       <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="9">
         <v>160</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="9">
         <v>171.9</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="10">
         <v>27504</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>44147</v>
       </c>
       <c r="B56" t="s">
@@ -2618,21 +2615,21 @@
       <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="9">
         <v>48</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="9">
         <v>181.43</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="10">
         <v>8708.64</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>44147</v>
       </c>
       <c r="B57" t="s">
@@ -2644,21 +2641,21 @@
       <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="9">
         <v>336</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="9">
         <v>142.44999999999999</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="10">
         <v>47863.199999999997</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>44147</v>
       </c>
       <c r="B58" t="s">
@@ -2670,21 +2667,21 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="9">
         <v>312</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="9">
         <v>157.30000000000001</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="10">
         <v>49077.599999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>44147</v>
       </c>
       <c r="B59" t="s">
@@ -2696,21 +2693,21 @@
       <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <v>400</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="9">
         <v>194.71</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="10">
         <v>77884</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>44147</v>
       </c>
       <c r="B60" t="s">
@@ -2722,21 +2719,21 @@
       <c r="D60" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="9">
         <v>240</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="9">
         <v>184.56</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="10">
         <v>44294.400000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>44147</v>
       </c>
       <c r="B61" t="s">
@@ -2748,17 +2745,122 @@
       <c r="D61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="9">
         <v>64</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="9">
         <v>218.45</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="10">
         <v>13980.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="7">
+        <v>44148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="9">
+        <v>160</v>
+      </c>
+      <c r="G62" s="9">
+        <v>172</v>
+      </c>
+      <c r="H62" s="10">
+        <f>F62*G62</f>
+        <v>27520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63" s="7">
+        <v>44148</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="9">
+        <v>160</v>
+      </c>
+      <c r="G63" s="3">
+        <v>171.9</v>
+      </c>
+      <c r="H63" s="10">
+        <f>F63*G63</f>
+        <v>27504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A64" s="7">
+        <v>44148</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="9">
+        <v>300</v>
+      </c>
+      <c r="G64" s="3">
+        <v>184.56</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" ref="H64:H66" si="1">F64*G64</f>
+        <v>55368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65" s="7">
+        <v>44148</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="9">
+        <v>240</v>
+      </c>
+      <c r="G65" s="3">
+        <v>194.71</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="1"/>
+        <v>46730.400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A66" s="7">
+        <v>44148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="9">
+        <v>192</v>
+      </c>
+      <c r="G66" s="9">
+        <v>218.45</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" si="1"/>
+        <v>41942.399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F695EA-9959-451C-8784-8EE3BA38715C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1F901-0372-41D9-BC19-DF549E5291AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="57">
   <si>
     <t>IV2011003</t>
   </si>
@@ -732,7 +732,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -767,6 +767,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1192,7 +1198,7 @@
       <c r="F2" s="3">
         <v>224</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="12">
         <v>182.93</v>
       </c>
       <c r="H2" s="4">
@@ -1218,7 +1224,7 @@
       <c r="F3" s="3">
         <v>196</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="12">
         <v>97.7</v>
       </c>
       <c r="H3" s="4">
@@ -1244,7 +1250,7 @@
       <c r="F4" s="3">
         <v>600</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="12">
         <v>194.71</v>
       </c>
       <c r="H4" s="4">
@@ -1270,7 +1276,7 @@
       <c r="F5" s="3">
         <v>600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="12">
         <v>184.56</v>
       </c>
       <c r="H5" s="4">
@@ -1297,7 +1303,7 @@
       <c r="F6" s="3">
         <v>144</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="12">
         <v>208.99</v>
       </c>
       <c r="H6" s="4">
@@ -1323,7 +1329,7 @@
       <c r="F7" s="3">
         <v>160</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>182.93</v>
       </c>
       <c r="H7" s="4">
@@ -1349,7 +1355,7 @@
       <c r="F8" s="3">
         <v>56</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <v>158.21</v>
       </c>
       <c r="H8" s="4">
@@ -1375,7 +1381,7 @@
       <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="12">
         <v>194.71</v>
       </c>
       <c r="H9" s="4">
@@ -1401,7 +1407,7 @@
       <c r="F10" s="3">
         <v>228</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="12">
         <v>184.56</v>
       </c>
       <c r="H10" s="4">
@@ -1427,7 +1433,7 @@
       <c r="F11" s="3">
         <v>132</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <v>208.99</v>
       </c>
       <c r="H11" s="4">
@@ -1453,7 +1459,7 @@
       <c r="F12" s="3">
         <v>84</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <v>158.21</v>
       </c>
       <c r="H12" s="4">
@@ -1479,7 +1485,7 @@
       <c r="F13" s="3">
         <v>160</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="12">
         <v>194.71</v>
       </c>
       <c r="H13" s="4">
@@ -1505,7 +1511,7 @@
       <c r="F14" s="3">
         <v>120</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="12">
         <v>184.56</v>
       </c>
       <c r="H14" s="4">
@@ -1531,7 +1537,7 @@
       <c r="F15" s="3">
         <v>132</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <v>208.99</v>
       </c>
       <c r="H15" s="4">
@@ -1557,7 +1563,7 @@
       <c r="F16" s="3">
         <v>400</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="12">
         <v>218.45</v>
       </c>
       <c r="H16" s="4">
@@ -1583,7 +1589,7 @@
       <c r="F17" s="3">
         <v>64</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <v>175.87</v>
       </c>
       <c r="H17" s="4">
@@ -1609,7 +1615,7 @@
       <c r="F18" s="3">
         <v>96</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="12">
         <v>173.08</v>
       </c>
       <c r="H18" s="4">
@@ -1635,7 +1641,7 @@
       <c r="F19" s="3">
         <v>140</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="12">
         <v>158.21</v>
       </c>
       <c r="H19" s="4">
@@ -1661,7 +1667,7 @@
       <c r="F20" s="3">
         <v>72</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="12">
         <v>184.56</v>
       </c>
       <c r="H20" s="4">
@@ -1687,7 +1693,7 @@
       <c r="F21" s="3">
         <v>36</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="12">
         <v>208.99</v>
       </c>
       <c r="H21" s="4">
@@ -1713,7 +1719,7 @@
       <c r="F22" s="3">
         <v>112</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="12">
         <v>287.70999999999998</v>
       </c>
       <c r="H22" s="11">
@@ -1740,7 +1746,7 @@
       <c r="F23" s="3">
         <v>96</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="12">
         <v>288.70999999999998</v>
       </c>
       <c r="H23" s="11">
@@ -1767,7 +1773,7 @@
       <c r="F24" s="3">
         <v>32</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="12">
         <v>175.87</v>
       </c>
       <c r="H24" s="11">
@@ -1794,7 +1800,7 @@
       <c r="F25" s="3">
         <v>80</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="12">
         <v>182.93</v>
       </c>
       <c r="H25" s="11">
@@ -1821,7 +1827,7 @@
       <c r="F26" s="3">
         <v>112</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="12">
         <v>97.7</v>
       </c>
       <c r="H26" s="11">
@@ -1848,7 +1854,7 @@
       <c r="F27" s="3">
         <v>84</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="12">
         <v>158.21</v>
       </c>
       <c r="H27" s="11">
@@ -1875,7 +1881,7 @@
       <c r="F28" s="3">
         <v>504</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="12">
         <v>194.71</v>
       </c>
       <c r="H28" s="11">
@@ -1902,7 +1908,7 @@
       <c r="F29" s="3">
         <v>160</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="12">
         <v>150</v>
       </c>
       <c r="H29" s="11">
@@ -1929,7 +1935,7 @@
       <c r="F30" s="3">
         <v>48</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="12">
         <v>181.43</v>
       </c>
       <c r="H30" s="11">
@@ -1956,7 +1962,7 @@
       <c r="F31" s="3">
         <v>48</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="12">
         <v>181.55</v>
       </c>
       <c r="H31" s="11">
@@ -1983,7 +1989,7 @@
       <c r="F32" s="3">
         <v>168</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="12">
         <v>97.7</v>
       </c>
       <c r="H32" s="11">
@@ -2010,7 +2016,7 @@
       <c r="F33" s="3">
         <v>32</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="12">
         <v>158.21</v>
       </c>
       <c r="H33" s="11">
@@ -2037,7 +2043,7 @@
       <c r="F34" s="3">
         <v>228</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="12">
         <v>184.56</v>
       </c>
       <c r="H34" s="11">
@@ -2064,7 +2070,7 @@
       <c r="F35" s="3">
         <v>208</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="12">
         <v>150</v>
       </c>
       <c r="H35" s="11">
@@ -2091,7 +2097,7 @@
       <c r="F36" s="3">
         <v>224</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="12">
         <v>287.70999999999998</v>
       </c>
       <c r="H36" s="11">
@@ -2118,7 +2124,7 @@
       <c r="F37" s="3">
         <v>272</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="12">
         <v>288.70999999999998</v>
       </c>
       <c r="H37" s="11">
@@ -2145,7 +2151,7 @@
       <c r="F38" s="3">
         <v>280</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="12">
         <v>97.7</v>
       </c>
       <c r="H38" s="11">
@@ -2172,7 +2178,7 @@
       <c r="F39" s="3">
         <v>160</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="12">
         <v>194.71</v>
       </c>
       <c r="H39" s="11">
@@ -2199,7 +2205,7 @@
       <c r="F40" s="3">
         <v>168</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="12">
         <v>184.56</v>
       </c>
       <c r="H40" s="11">
@@ -2226,7 +2232,7 @@
       <c r="F41" s="3">
         <v>96</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="12">
         <v>150</v>
       </c>
       <c r="H41" s="11">
@@ -2253,7 +2259,7 @@
       <c r="F42" s="3">
         <v>140</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="12">
         <v>143.21</v>
       </c>
       <c r="H42" s="11">
@@ -2280,7 +2286,7 @@
       <c r="F43" s="3">
         <v>560</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="12">
         <v>142.44999999999999</v>
       </c>
       <c r="H43" s="11">
@@ -2307,7 +2313,7 @@
       <c r="F44" s="3">
         <v>480</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="12">
         <v>157.30000000000001</v>
       </c>
       <c r="H44" s="11">
@@ -2334,7 +2340,7 @@
       <c r="F45" s="3">
         <v>204</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="12">
         <v>184.56</v>
       </c>
       <c r="H45" s="11">
@@ -2361,7 +2367,7 @@
       <c r="F46" s="3">
         <v>160</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="12">
         <v>171.9</v>
       </c>
       <c r="H46" s="4">
@@ -2387,7 +2393,7 @@
       <c r="F47" s="3">
         <v>160</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="12">
         <v>171.9</v>
       </c>
       <c r="H47" s="4">
@@ -2413,7 +2419,7 @@
       <c r="F48" s="3">
         <v>128</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="12">
         <v>287.70999999999998</v>
       </c>
       <c r="H48" s="4">
@@ -2439,7 +2445,7 @@
       <c r="F49" s="3">
         <v>56</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="12">
         <v>158.21</v>
       </c>
       <c r="H49" s="4">
@@ -2465,7 +2471,7 @@
       <c r="F50" s="3">
         <v>320</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="12">
         <v>194.71</v>
       </c>
       <c r="H50" s="4">
@@ -2491,7 +2497,7 @@
       <c r="F51" s="3">
         <v>204</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="12">
         <v>184.56</v>
       </c>
       <c r="H51" s="4">
@@ -2517,7 +2523,7 @@
       <c r="F52" s="3">
         <v>12</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="12">
         <v>208.99</v>
       </c>
       <c r="H52" s="4">
@@ -2543,7 +2549,7 @@
       <c r="F53" s="3">
         <v>496</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="12">
         <v>218.45</v>
       </c>
       <c r="H53" s="4">
@@ -2569,7 +2575,7 @@
       <c r="F54" s="9">
         <v>160</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="13">
         <v>171.9</v>
       </c>
       <c r="H54" s="10">
@@ -2595,7 +2601,7 @@
       <c r="F55" s="9">
         <v>160</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="13">
         <v>171.9</v>
       </c>
       <c r="H55" s="10">
@@ -2621,7 +2627,7 @@
       <c r="F56" s="9">
         <v>48</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="13">
         <v>181.43</v>
       </c>
       <c r="H56" s="10">
@@ -2647,7 +2653,7 @@
       <c r="F57" s="9">
         <v>336</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="13">
         <v>142.44999999999999</v>
       </c>
       <c r="H57" s="10">
@@ -2673,7 +2679,7 @@
       <c r="F58" s="9">
         <v>312</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="13">
         <v>157.30000000000001</v>
       </c>
       <c r="H58" s="10">
@@ -2699,7 +2705,7 @@
       <c r="F59" s="9">
         <v>400</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="13">
         <v>194.71</v>
       </c>
       <c r="H59" s="10">
@@ -2725,7 +2731,7 @@
       <c r="F60" s="9">
         <v>240</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="13">
         <v>184.56</v>
       </c>
       <c r="H60" s="10">
@@ -2751,7 +2757,7 @@
       <c r="F61" s="9">
         <v>64</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="13">
         <v>218.45</v>
       </c>
       <c r="H61" s="10">
@@ -2771,7 +2777,7 @@
       <c r="F62" s="9">
         <v>160</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="13">
         <v>172</v>
       </c>
       <c r="H62" s="10">
@@ -2792,7 +2798,7 @@
       <c r="F63" s="9">
         <v>160</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="12">
         <v>171.9</v>
       </c>
       <c r="H63" s="10">
@@ -2813,7 +2819,7 @@
       <c r="F64" s="9">
         <v>300</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="12">
         <v>184.56</v>
       </c>
       <c r="H64" s="10">
@@ -2834,7 +2840,7 @@
       <c r="F65" s="9">
         <v>240</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="12">
         <v>194.71</v>
       </c>
       <c r="H65" s="10">
@@ -2855,12 +2861,75 @@
       <c r="F66" s="9">
         <v>192</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="13">
         <v>218.45</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" si="1"/>
         <v>41942.399999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A67" s="7">
+        <v>44149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9">
+        <v>240</v>
+      </c>
+      <c r="G67" s="13">
+        <v>194.71</v>
+      </c>
+      <c r="H67" s="10">
+        <v>77884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A68" s="7">
+        <v>44149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9">
+        <v>240</v>
+      </c>
+      <c r="G68" s="13">
+        <v>184.56</v>
+      </c>
+      <c r="H68" s="10">
+        <v>44294.400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69" s="7">
+        <v>44149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9">
+        <v>208</v>
+      </c>
+      <c r="G69" s="13">
+        <v>218.45</v>
+      </c>
+      <c r="H69" s="10">
+        <v>13980.8</v>
       </c>
     </row>
   </sheetData>

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D1F901-0372-41D9-BC19-DF549E5291AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8CCC6A-96F0-4214-A6B4-56E84D020DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="68">
   <si>
     <t>IV2011003</t>
   </si>
@@ -205,6 +205,39 @@
   </si>
   <si>
     <t>DN : 0280095534</t>
+  </si>
+  <si>
+    <t>IV2011024</t>
+  </si>
+  <si>
+    <t>DN : 0280095661</t>
+  </si>
+  <si>
+    <t>IV2011025</t>
+  </si>
+  <si>
+    <t>DN : 0280095806</t>
+  </si>
+  <si>
+    <t>IV2011026</t>
+  </si>
+  <si>
+    <t>DN : 0380008533</t>
+  </si>
+  <si>
+    <t>IV2011033</t>
+  </si>
+  <si>
+    <t>DN : 0280095811</t>
+  </si>
+  <si>
+    <t>IV2011034</t>
+  </si>
+  <si>
+    <t>DN : 0480011928</t>
+  </si>
+  <si>
+    <t>Z0009524A</t>
   </si>
 </sst>
 </file>
@@ -380,6 +413,7 @@
     <font>
       <sz val="12"/>
       <name val="Angsana New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -732,7 +766,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,6 +785,12 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -763,16 +803,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1198,7 +1230,7 @@
       <c r="F2" s="3">
         <v>224</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="3">
         <v>182.93</v>
       </c>
       <c r="H2" s="4">
@@ -1224,7 +1256,7 @@
       <c r="F3" s="3">
         <v>196</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="3">
         <v>97.7</v>
       </c>
       <c r="H3" s="4">
@@ -1250,7 +1282,7 @@
       <c r="F4" s="3">
         <v>600</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="3">
         <v>194.71</v>
       </c>
       <c r="H4" s="4">
@@ -1276,7 +1308,7 @@
       <c r="F5" s="3">
         <v>600</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="3">
         <v>184.56</v>
       </c>
       <c r="H5" s="4">
@@ -1303,7 +1335,7 @@
       <c r="F6" s="3">
         <v>144</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="3">
         <v>208.99</v>
       </c>
       <c r="H6" s="4">
@@ -1329,7 +1361,7 @@
       <c r="F7" s="3">
         <v>160</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="3">
         <v>182.93</v>
       </c>
       <c r="H7" s="4">
@@ -1355,7 +1387,7 @@
       <c r="F8" s="3">
         <v>56</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="3">
         <v>158.21</v>
       </c>
       <c r="H8" s="4">
@@ -1381,7 +1413,7 @@
       <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="3">
         <v>194.71</v>
       </c>
       <c r="H9" s="4">
@@ -1407,7 +1439,7 @@
       <c r="F10" s="3">
         <v>228</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="3">
         <v>184.56</v>
       </c>
       <c r="H10" s="4">
@@ -1433,7 +1465,7 @@
       <c r="F11" s="3">
         <v>132</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="3">
         <v>208.99</v>
       </c>
       <c r="H11" s="4">
@@ -1459,7 +1491,7 @@
       <c r="F12" s="3">
         <v>84</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="3">
         <v>158.21</v>
       </c>
       <c r="H12" s="4">
@@ -1485,7 +1517,7 @@
       <c r="F13" s="3">
         <v>160</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="3">
         <v>194.71</v>
       </c>
       <c r="H13" s="4">
@@ -1511,7 +1543,7 @@
       <c r="F14" s="3">
         <v>120</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="3">
         <v>184.56</v>
       </c>
       <c r="H14" s="4">
@@ -1537,7 +1569,7 @@
       <c r="F15" s="3">
         <v>132</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="3">
         <v>208.99</v>
       </c>
       <c r="H15" s="4">
@@ -1563,7 +1595,7 @@
       <c r="F16" s="3">
         <v>400</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="3">
         <v>218.45</v>
       </c>
       <c r="H16" s="4">
@@ -1589,10 +1621,10 @@
       <c r="F17" s="3">
         <v>64</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="3">
         <v>175.87</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>11255.68</v>
       </c>
     </row>
@@ -1615,10 +1647,10 @@
       <c r="F18" s="3">
         <v>96</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="3">
         <v>173.08</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
         <v>16615.68</v>
       </c>
     </row>
@@ -1641,10 +1673,10 @@
       <c r="F19" s="3">
         <v>140</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="3">
         <v>158.21</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>22149.4</v>
       </c>
     </row>
@@ -1667,10 +1699,10 @@
       <c r="F20" s="3">
         <v>72</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="3">
         <v>184.56</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
         <v>13288.32</v>
       </c>
     </row>
@@ -1693,10 +1725,10 @@
       <c r="F21" s="3">
         <v>36</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="3">
         <v>208.99</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
         <v>7523.64</v>
       </c>
     </row>
@@ -1719,10 +1751,10 @@
       <c r="F22" s="3">
         <v>112</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="7">
         <f t="shared" ref="H22:H45" si="0">F22*G22</f>
         <v>32223.519999999997</v>
       </c>
@@ -1746,10 +1778,10 @@
       <c r="F23" s="3">
         <v>96</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="3">
         <v>288.70999999999998</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <f t="shared" si="0"/>
         <v>27716.159999999996</v>
       </c>
@@ -1773,10 +1805,10 @@
       <c r="F24" s="3">
         <v>32</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="3">
         <v>175.87</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>5627.84</v>
       </c>
@@ -1800,10 +1832,10 @@
       <c r="F25" s="3">
         <v>80</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="3">
         <v>182.93</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>14634.400000000001</v>
       </c>
@@ -1827,10 +1859,10 @@
       <c r="F26" s="3">
         <v>112</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="3">
         <v>97.7</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>10942.4</v>
       </c>
@@ -1854,10 +1886,10 @@
       <c r="F27" s="3">
         <v>84</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="3">
         <v>158.21</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>13289.640000000001</v>
       </c>
@@ -1881,10 +1913,10 @@
       <c r="F28" s="3">
         <v>504</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="3">
         <v>194.71</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>98133.840000000011</v>
       </c>
@@ -1908,10 +1940,10 @@
       <c r="F29" s="3">
         <v>160</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="3">
         <v>150</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
@@ -1935,10 +1967,10 @@
       <c r="F30" s="3">
         <v>48</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="3">
         <v>181.43</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>8708.64</v>
       </c>
@@ -1962,10 +1994,10 @@
       <c r="F31" s="3">
         <v>48</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="3">
         <v>181.55</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
         <v>8714.4000000000015</v>
       </c>
@@ -1989,10 +2021,10 @@
       <c r="F32" s="3">
         <v>168</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="3">
         <v>97.7</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
         <v>16413.600000000002</v>
       </c>
@@ -2016,10 +2048,10 @@
       <c r="F33" s="3">
         <v>32</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="3">
         <v>158.21</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
         <v>5062.72</v>
       </c>
@@ -2043,10 +2075,10 @@
       <c r="F34" s="3">
         <v>228</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="3">
         <v>184.56</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
         <v>42079.68</v>
       </c>
@@ -2070,10 +2102,10 @@
       <c r="F35" s="3">
         <v>208</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="3">
         <v>150</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
@@ -2097,10 +2129,10 @@
       <c r="F36" s="3">
         <v>224</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="7">
         <f t="shared" si="0"/>
         <v>64447.039999999994</v>
       </c>
@@ -2124,10 +2156,10 @@
       <c r="F37" s="3">
         <v>272</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="3">
         <v>288.70999999999998</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="7">
         <f t="shared" si="0"/>
         <v>78529.119999999995</v>
       </c>
@@ -2151,10 +2183,10 @@
       <c r="F38" s="3">
         <v>280</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="3">
         <v>97.7</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>27356</v>
       </c>
@@ -2178,10 +2210,10 @@
       <c r="F39" s="3">
         <v>160</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="3">
         <v>194.71</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <f t="shared" si="0"/>
         <v>31153.600000000002</v>
       </c>
@@ -2205,10 +2237,10 @@
       <c r="F40" s="3">
         <v>168</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="3">
         <v>184.56</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <f t="shared" si="0"/>
         <v>31006.080000000002</v>
       </c>
@@ -2232,10 +2264,10 @@
       <c r="F41" s="3">
         <v>96</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="3">
         <v>150</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
@@ -2259,10 +2291,10 @@
       <c r="F42" s="3">
         <v>140</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="3">
         <v>143.21</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="7">
         <f t="shared" si="0"/>
         <v>20049.400000000001</v>
       </c>
@@ -2286,10 +2318,10 @@
       <c r="F43" s="3">
         <v>560</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="3">
         <v>142.44999999999999</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="7">
         <f t="shared" si="0"/>
         <v>79772</v>
       </c>
@@ -2313,10 +2345,10 @@
       <c r="F44" s="3">
         <v>480</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="3">
         <v>157.30000000000001</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
         <v>75504</v>
       </c>
@@ -2340,10 +2372,10 @@
       <c r="F45" s="3">
         <v>204</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="3">
         <v>184.56</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="7">
         <f t="shared" si="0"/>
         <v>37650.239999999998</v>
       </c>
@@ -2358,7 +2390,7 @@
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2367,10 +2399,10 @@
       <c r="F46" s="3">
         <v>160</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="3">
         <v>171.9</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="6">
         <v>27504</v>
       </c>
     </row>
@@ -2384,7 +2416,7 @@
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2393,10 +2425,10 @@
       <c r="F47" s="3">
         <v>160</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="3">
         <v>171.9</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="6">
         <v>27504</v>
       </c>
     </row>
@@ -2419,10 +2451,10 @@
       <c r="F48" s="3">
         <v>128</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="3">
         <v>287.70999999999998</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="6">
         <v>36826.879999999997</v>
       </c>
     </row>
@@ -2445,10 +2477,10 @@
       <c r="F49" s="3">
         <v>56</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="3">
         <v>158.21</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="6">
         <v>8859.76</v>
       </c>
     </row>
@@ -2471,10 +2503,10 @@
       <c r="F50" s="3">
         <v>320</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="3">
         <v>194.71</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="6">
         <v>62307.199999999997</v>
       </c>
     </row>
@@ -2497,10 +2529,10 @@
       <c r="F51" s="3">
         <v>204</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="3">
         <v>184.56</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="6">
         <v>37650.239999999998</v>
       </c>
     </row>
@@ -2523,10 +2555,10 @@
       <c r="F52" s="3">
         <v>12</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="3">
         <v>208.99</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="6">
         <v>2507.88</v>
       </c>
     </row>
@@ -2549,15 +2581,15 @@
       <c r="F53" s="3">
         <v>496</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="3">
         <v>218.45</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="6">
         <v>108351.2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="7">
+      <c r="A54" s="9">
         <v>44147</v>
       </c>
       <c r="B54" t="s">
@@ -2569,21 +2601,21 @@
       <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="11">
         <v>160</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="11">
         <v>171.9</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="12">
         <v>27504</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="7">
+      <c r="A55" s="9">
         <v>44147</v>
       </c>
       <c r="B55" t="s">
@@ -2595,21 +2627,21 @@
       <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="11">
         <v>160</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="11">
         <v>171.9</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="12">
         <v>27504</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="7">
+      <c r="A56" s="9">
         <v>44147</v>
       </c>
       <c r="B56" t="s">
@@ -2621,21 +2653,21 @@
       <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="11">
         <v>48</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="11">
         <v>181.43</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="12">
         <v>8708.64</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="7">
+      <c r="A57" s="9">
         <v>44147</v>
       </c>
       <c r="B57" t="s">
@@ -2647,21 +2679,21 @@
       <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="11">
         <v>336</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="11">
         <v>142.44999999999999</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="12">
         <v>47863.199999999997</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="7">
+      <c r="A58" s="9">
         <v>44147</v>
       </c>
       <c r="B58" t="s">
@@ -2673,21 +2705,21 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="11">
         <v>312</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="11">
         <v>157.30000000000001</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="12">
         <v>49077.599999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="7">
+      <c r="A59" s="9">
         <v>44147</v>
       </c>
       <c r="B59" t="s">
@@ -2699,21 +2731,21 @@
       <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="11">
         <v>400</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="11">
         <v>194.71</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="12">
         <v>77884</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="7">
+      <c r="A60" s="9">
         <v>44147</v>
       </c>
       <c r="B60" t="s">
@@ -2725,21 +2757,21 @@
       <c r="D60" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="11">
         <v>240</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="11">
         <v>184.56</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="12">
         <v>44294.400000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="7">
+      <c r="A61" s="9">
         <v>44147</v>
       </c>
       <c r="B61" t="s">
@@ -2751,106 +2783,129 @@
       <c r="D61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="11">
         <v>64</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="11">
         <v>218.45</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="12">
         <v>13980.8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="7">
+      <c r="A62" s="9">
         <v>44148</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="9">
+      <c r="E62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="11">
         <v>160</v>
       </c>
-      <c r="G62" s="13">
-        <v>172</v>
-      </c>
-      <c r="H62" s="10">
-        <f>F62*G62</f>
-        <v>27520</v>
+      <c r="G62" s="11">
+        <v>171.9</v>
+      </c>
+      <c r="H62" s="12">
+        <v>27504</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="7">
+      <c r="A63" s="9">
         <v>44148</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="9">
+      <c r="E63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="11">
         <v>160</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>171.9</v>
       </c>
-      <c r="H63" s="10">
-        <f>F63*G63</f>
+      <c r="H63" s="12">
         <v>27504</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="7">
+      <c r="A64" s="9">
         <v>44148</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="11">
+        <v>240</v>
+      </c>
+      <c r="G64" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H64" s="12">
+        <v>46730.400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65" s="9">
+        <v>44148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" t="s">
         <v>41</v>
       </c>
-      <c r="F64" s="9">
+      <c r="E65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="11">
         <v>300</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="11">
         <v>184.56</v>
       </c>
-      <c r="H64" s="10">
-        <f t="shared" ref="H64:H66" si="1">F64*G64</f>
+      <c r="H65" s="12">
         <v>55368</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A66" s="9">
         <v>44148</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="9">
-        <v>240</v>
-      </c>
-      <c r="G65" s="12">
-        <v>194.71</v>
-      </c>
-      <c r="H65" s="10">
-        <f t="shared" si="1"/>
-        <v>46730.400000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="7">
-        <v>44148</v>
+      <c r="B66" t="s">
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -2858,20 +2913,25 @@
       <c r="D66" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="9">
+      <c r="E66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="11">
         <v>192</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="11">
         <v>218.45</v>
       </c>
-      <c r="H66" s="10">
-        <f t="shared" si="1"/>
-        <v>41942.399999999994</v>
+      <c r="H66" s="12">
+        <v>41942.400000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="7">
+      <c r="A67" s="9">
         <v>44149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -2879,20 +2939,25 @@
       <c r="D67" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="9">
+      <c r="E67" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="11">
         <v>240</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="11">
         <v>194.71</v>
       </c>
-      <c r="H67" s="10">
-        <v>77884</v>
+      <c r="H67" s="12">
+        <v>46730.400000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A68" s="7">
+      <c r="A68" s="9">
         <v>44149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
@@ -2900,20 +2965,25 @@
       <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9">
+      <c r="E68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="11">
         <v>240</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="11">
         <v>184.56</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="12">
         <v>44294.400000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A69" s="7">
+      <c r="A69" s="9">
         <v>44149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -2921,16 +2991,235 @@
       <c r="D69" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="9">
+      <c r="E69" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="11">
         <v>208</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="11">
         <v>218.45</v>
       </c>
-      <c r="H69" s="10">
-        <v>13980.8</v>
-      </c>
+      <c r="H69" s="12">
+        <v>45437.599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A70" s="9">
+        <v>44150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="11">
+        <v>208</v>
+      </c>
+      <c r="G70" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H70" s="12">
+        <v>45437.599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A71" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="11">
+        <v>224</v>
+      </c>
+      <c r="G71" s="11">
+        <v>287.70999999999998</v>
+      </c>
+      <c r="H71" s="12">
+        <v>64447.040000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="11">
+        <v>352</v>
+      </c>
+      <c r="G72" s="11">
+        <v>182.93</v>
+      </c>
+      <c r="H72" s="12">
+        <v>64391.360000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A73" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="11">
+        <v>504</v>
+      </c>
+      <c r="G73" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H73" s="12">
+        <v>98133.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A74" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="11">
+        <v>504</v>
+      </c>
+      <c r="G74" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H74" s="12">
+        <v>93018.240000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A75" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="11">
+        <v>16</v>
+      </c>
+      <c r="G75" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H75" s="12">
+        <v>3495.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="11">
+        <v>112</v>
+      </c>
+      <c r="G76" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H76" s="12">
+        <v>24466.400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="11">
+        <v>300</v>
+      </c>
+      <c r="G77" s="11">
+        <v>223.71</v>
+      </c>
+      <c r="H77" s="12">
+        <v>67113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a008af66a1917ae7/Desktop/Note by Meiy 2020/Sale Daily2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8CCC6A-96F0-4214-A6B4-56E84D020DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0849063A-26EA-48F2-9712-11B460277C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="74">
   <si>
     <t>IV2011003</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>Z0009524A</t>
+  </si>
+  <si>
+    <t>IV2011035</t>
+  </si>
+  <si>
+    <t>DN : 0280095971</t>
+  </si>
+  <si>
+    <t>Z0009524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYLINDER HEAD (R) </t>
+  </si>
+  <si>
+    <t>Z0009680</t>
+  </si>
+  <si>
+    <t>CYLIDER BLOCK  (R)</t>
   </si>
 </sst>
 </file>
@@ -1164,11 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -3213,13 +3230,160 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
+      <c r="A78" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="11">
+        <v>152</v>
+      </c>
+      <c r="G78" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H78" s="12">
+        <v>29595.919999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A79" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="11">
+        <v>252</v>
+      </c>
+      <c r="G79" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H79" s="12">
+        <v>46509.120000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="11">
+        <v>48</v>
+      </c>
+      <c r="G80" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H80" s="12">
+        <v>10031.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A81" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="11">
+        <v>208</v>
+      </c>
+      <c r="G81" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H81" s="12">
+        <v>45437.599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A82" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="11">
+        <v>20</v>
+      </c>
+      <c r="G82" s="11">
+        <v>223.71</v>
+      </c>
+      <c r="H82" s="12">
+        <v>4474.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A83" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="11">
+        <v>112</v>
+      </c>
+      <c r="G83" s="11">
+        <v>150</v>
+      </c>
+      <c r="H83" s="12">
+        <v>16800</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a008af66a1917ae7/Desktop/Note by Meiy 2020/Sale Daily2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0849063A-26EA-48F2-9712-11B460277C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6586E93E-1C38-401B-B8F9-9FF053CF560A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="76">
   <si>
     <t>IV2011003</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>CYLIDER BLOCK  (R)</t>
+  </si>
+  <si>
+    <t>IV2011040</t>
+  </si>
+  <si>
+    <t>DN : 0280096084</t>
   </si>
 </sst>
 </file>
@@ -1182,17 +1188,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
@@ -3385,6 +3391,162 @@
         <v>16800</v>
       </c>
     </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A84" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="11">
+        <v>320</v>
+      </c>
+      <c r="G84" s="11">
+        <v>182.93</v>
+      </c>
+      <c r="H84" s="12">
+        <v>58537.599999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A85" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="11">
+        <v>192</v>
+      </c>
+      <c r="G85" s="11">
+        <v>181.43</v>
+      </c>
+      <c r="H85" s="12">
+        <v>34834.559999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A86" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="11">
+        <v>152</v>
+      </c>
+      <c r="G86" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H86" s="12">
+        <v>29595.919999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A87" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="11">
+        <v>96</v>
+      </c>
+      <c r="G87" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H87" s="12">
+        <v>17717.759999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A88" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="11">
+        <v>240</v>
+      </c>
+      <c r="G88" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H88" s="12">
+        <v>50157.599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A89" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="11">
+        <v>208</v>
+      </c>
+      <c r="G89" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H89" s="12">
+        <v>45437.599999999999</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M45">

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6586E93E-1C38-401B-B8F9-9FF053CF560A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4751D65-B682-4E56-B840-8B56F807A91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="87">
   <si>
     <t>IV2011003</t>
   </si>
@@ -262,6 +262,39 @@
   </si>
   <si>
     <t>DN : 0280096084</t>
+  </si>
+  <si>
+    <t>IV2011041</t>
+  </si>
+  <si>
+    <t>DN : 0280096312</t>
+  </si>
+  <si>
+    <t>5612602102A</t>
+  </si>
+  <si>
+    <t>CYL .H  (R)Proton</t>
+  </si>
+  <si>
+    <t>Cylblock 'R'</t>
+  </si>
+  <si>
+    <t>IV2011042</t>
+  </si>
+  <si>
+    <t>DN : 0280096530</t>
+  </si>
+  <si>
+    <t>IV2011044</t>
+  </si>
+  <si>
+    <t>ระบบลูกค้ามีปัญหา</t>
+  </si>
+  <si>
+    <t>IV2011043</t>
+  </si>
+  <si>
+    <t>DN : 0480012028</t>
   </si>
 </sst>
 </file>
@@ -272,11 +305,18 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/bb"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Angsana New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,6 +478,12 @@
       <sz val="12"/>
       <name val="Angsana New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -737,91 +783,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1">
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -830,8 +877,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -871,6 +939,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{EC9FA5E9-B911-46CD-8D28-E576432CA7BC}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{272D1EBE-2EE3-4C68-8452-642D4766D71F}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1188,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -3547,6 +3616,396 @@
         <v>45437.599999999999</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A90" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="11">
+        <v>176</v>
+      </c>
+      <c r="G90" s="11">
+        <v>182.93</v>
+      </c>
+      <c r="H90" s="12">
+        <v>32195.68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A91" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="11">
+        <v>36</v>
+      </c>
+      <c r="G91" s="11">
+        <v>195.22</v>
+      </c>
+      <c r="H91" s="12">
+        <v>7027.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A92" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="11">
+        <v>200</v>
+      </c>
+      <c r="G92" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H92" s="12">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A93" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="11">
+        <v>108</v>
+      </c>
+      <c r="G93" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H93" s="12">
+        <v>19932.48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A94" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F94" s="11">
+        <v>240</v>
+      </c>
+      <c r="G94" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H94" s="12">
+        <v>50157.599999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A95" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="11">
+        <v>160</v>
+      </c>
+      <c r="G95" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H95" s="12">
+        <v>34952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A96" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" s="11">
+        <v>20</v>
+      </c>
+      <c r="G96" s="11">
+        <v>223.71</v>
+      </c>
+      <c r="H96" s="12">
+        <v>4474.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A97" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" s="11">
+        <v>96</v>
+      </c>
+      <c r="G97" s="11">
+        <v>150</v>
+      </c>
+      <c r="H97" s="12">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A98" s="9">
+        <v>44155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" s="11">
+        <v>112</v>
+      </c>
+      <c r="G98" s="11">
+        <v>288.70999999999998</v>
+      </c>
+      <c r="H98" s="12">
+        <v>32335.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A99" s="9">
+        <v>44155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="11">
+        <v>160</v>
+      </c>
+      <c r="G99" s="11">
+        <v>181.43</v>
+      </c>
+      <c r="H99" s="12">
+        <v>29028.799999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="17">
+        <v>160</v>
+      </c>
+      <c r="G100" s="17">
+        <v>194.71</v>
+      </c>
+      <c r="H100" s="18">
+        <v>31153.599999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="17">
+        <v>72</v>
+      </c>
+      <c r="G101" s="17">
+        <v>184.56</v>
+      </c>
+      <c r="H101" s="18">
+        <v>13288.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="17">
+        <v>228</v>
+      </c>
+      <c r="G102" s="17">
+        <v>208.99</v>
+      </c>
+      <c r="H102" s="18">
+        <v>47649.72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="17">
+        <v>160</v>
+      </c>
+      <c r="G103" s="17">
+        <v>218.45</v>
+      </c>
+      <c r="H103" s="18">
+        <v>34952</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="17">
+        <v>320</v>
+      </c>
+      <c r="G104" s="17">
+        <v>150</v>
+      </c>
+      <c r="H104" s="18">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M45">

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4751D65-B682-4E56-B840-8B56F807A91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6D3C5E-C4AB-4800-8B8C-D87314B3A790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="97">
   <si>
     <t>IV2011003</t>
   </si>
@@ -295,6 +295,36 @@
   </si>
   <si>
     <t>DN : 0480012028</t>
+  </si>
+  <si>
+    <t>IV2011045</t>
+  </si>
+  <si>
+    <t>DN : 0280096661</t>
+  </si>
+  <si>
+    <t>IV2011049</t>
+  </si>
+  <si>
+    <t>DN : 0480012077</t>
+  </si>
+  <si>
+    <t>IV2011048</t>
+  </si>
+  <si>
+    <t>DN : 0280096663</t>
+  </si>
+  <si>
+    <t>IV2011051</t>
+  </si>
+  <si>
+    <t>DN : 0380008592</t>
+  </si>
+  <si>
+    <t>IV2011047</t>
+  </si>
+  <si>
+    <t>DN : 0480012064</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -4006,6 +4036,344 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A105" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="11">
+        <v>96</v>
+      </c>
+      <c r="G105" s="11">
+        <v>181.43</v>
+      </c>
+      <c r="H105" s="12">
+        <v>17417.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A106" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="11">
+        <v>200</v>
+      </c>
+      <c r="G106" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H106" s="12">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A107" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="11">
+        <v>204</v>
+      </c>
+      <c r="G107" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H107" s="12">
+        <v>37650.239999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A108" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="11">
+        <v>160</v>
+      </c>
+      <c r="G108" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H108" s="12">
+        <v>34952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A109" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="11">
+        <v>208</v>
+      </c>
+      <c r="G109" s="11">
+        <v>150</v>
+      </c>
+      <c r="H109" s="12">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A110" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="11">
+        <v>160</v>
+      </c>
+      <c r="G110" s="11">
+        <v>287.70999999999998</v>
+      </c>
+      <c r="H110" s="12">
+        <v>46033.599999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A111" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="11">
+        <v>176</v>
+      </c>
+      <c r="G111" s="11">
+        <v>181.43</v>
+      </c>
+      <c r="H111" s="12">
+        <v>31931.68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A112" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="11">
+        <v>456</v>
+      </c>
+      <c r="G112" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H112" s="12">
+        <v>88787.76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A113" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="11">
+        <v>360</v>
+      </c>
+      <c r="G113" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H113" s="12">
+        <v>66441.600000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A114" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="11">
+        <v>120</v>
+      </c>
+      <c r="G114" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H114" s="12">
+        <v>25078.799999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A115" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" s="11">
+        <v>324</v>
+      </c>
+      <c r="G115" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H115" s="12">
+        <v>67712.759999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A116" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="11">
+        <v>336</v>
+      </c>
+      <c r="G116" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H116" s="12">
+        <v>73399.199999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A117" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="11">
+        <v>176</v>
+      </c>
+      <c r="G117" s="11">
+        <v>150</v>
+      </c>
+      <c r="H117" s="12">
+        <v>26400</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M45">

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6D3C5E-C4AB-4800-8B8C-D87314B3A790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2F7D2E-4DB1-4D0F-B7D1-33B777F3CF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="99">
   <si>
     <t>IV2011003</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>DN : 0480012064</t>
+  </si>
+  <si>
+    <t>IV2011055</t>
+  </si>
+  <si>
+    <t>DN : 0280096915</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/bb"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Angsana New"/>
@@ -514,6 +520,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Angsana New"/>
     </font>
   </fonts>
   <fills count="33">
@@ -867,7 +877,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,6 +936,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -4374,8 +4387,190 @@
         <v>26400</v>
       </c>
     </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A118" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="11">
+        <v>160</v>
+      </c>
+      <c r="G118" s="11">
+        <v>171.9</v>
+      </c>
+      <c r="H118" s="12">
+        <v>27504</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A119" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B119" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" s="11">
+        <v>160</v>
+      </c>
+      <c r="G119" s="11">
+        <v>171.9</v>
+      </c>
+      <c r="H119" s="12">
+        <v>27504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A120" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" s="11">
+        <v>240</v>
+      </c>
+      <c r="G120" s="11">
+        <v>181.43</v>
+      </c>
+      <c r="H120" s="12">
+        <v>43543.199999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A121" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="11">
+        <v>304</v>
+      </c>
+      <c r="G121" s="11">
+        <v>194.71</v>
+      </c>
+      <c r="H121" s="12">
+        <v>59191.839999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A122" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" s="11">
+        <v>240</v>
+      </c>
+      <c r="G122" s="11">
+        <v>184.56</v>
+      </c>
+      <c r="H122" s="12">
+        <v>44294.400000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A123" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" s="11">
+        <v>252</v>
+      </c>
+      <c r="G123" s="11">
+        <v>208.99</v>
+      </c>
+      <c r="H123" s="12">
+        <v>52665.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A124" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" s="11">
+        <v>240</v>
+      </c>
+      <c r="G124" s="11">
+        <v>218.45</v>
+      </c>
+      <c r="H124" s="12">
+        <v>52428</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N21" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>
+  <autoFilter ref="A1:N117" xr:uid="{27AD05B0-4B5B-40F5-8BDC-4BB66FD293FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M45">
     <sortCondition ref="A2:A45"/>
   </sortState>

--- a/Del-Data.xlsx
+++ b/Del-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2F7D2E-4DB1-4D0F-B7D1-33B777F3CF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26171F82-C400-4498-A2B0-7C0AC04D406B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="111">
   <si>
     <t>IV2011003</t>
   </si>
@@ -331,6 +331,42 @@
   </si>
   <si>
     <t>DN : 0280096915</t>
+  </si>
+  <si>
+    <t>IV2011056</t>
+  </si>
+  <si>
+    <t>DN : 0280097073</t>
+  </si>
+  <si>
+    <t>IV2011057</t>
+  </si>
+  <si>
+    <t>T963100A</t>
+  </si>
+  <si>
+    <t>Cylblock 'F'</t>
+  </si>
+  <si>
+    <t>DN : 0480012099</t>
+  </si>
+  <si>
+    <t>T963113A</t>
+  </si>
+  <si>
+    <t>CYL .H  (R)</t>
+  </si>
+  <si>
+    <t>IV2011061</t>
+  </si>
+  <si>
+    <t>DN : 0280097231</t>
+  </si>
+  <si>
+    <t>5611503102A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELL (F) </t>
   </si>
 </sst>
 </file>
@@ -341,7 +377,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/bb"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Angsana New"/>
@@ -520,6 +556,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -877,7 +918,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,9 +949,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -926,9 +964,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -938,7 +973,19 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1300,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1312,7 +1359,7 @@
     <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
@@ -1333,7 +1380,7 @@
       <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1359,7 +1406,7 @@
       <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3">
@@ -1385,7 +1432,7 @@
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3">
@@ -1411,7 +1458,7 @@
       <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="3">
@@ -1437,7 +1484,7 @@
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="3">
@@ -1464,7 +1511,7 @@
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="3">
@@ -1490,7 +1537,7 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="3">
@@ -1516,7 +1563,7 @@
       <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3">
@@ -1542,7 +1589,7 @@
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="3">
@@ -1568,7 +1615,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="3">
@@ -1594,7 +1641,7 @@
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="3">
@@ -1620,7 +1667,7 @@
       <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="3">
@@ -1646,7 +1693,7 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="3">
@@ -1672,7 +1719,7 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="3">
@@ -1698,7 +1745,7 @@
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="3">
@@ -1724,7 +1771,7 @@
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3">
@@ -1750,7 +1797,7 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3">
@@ -1776,7 +1823,7 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="3">
@@ -1802,7 +1849,7 @@
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="3">
@@ -1828,7 +1875,7 @@
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3">
@@ -1854,7 +1901,7 @@
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3">
@@ -1880,7 +1927,7 @@
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3">
@@ -1907,7 +1954,7 @@
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="3">
@@ -1934,7 +1981,7 @@
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3">
@@ -1961,7 +2008,7 @@
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="3">
@@ -1988,7 +2035,7 @@
       <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3">
@@ -2015,7 +2062,7 @@
       <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3">
@@ -2042,7 +2089,7 @@
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3">
@@ -2069,7 +2116,7 @@
       <c r="D29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3">
@@ -2096,7 +2143,7 @@
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3">
@@ -2123,7 +2170,7 @@
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="3">
@@ -2150,7 +2197,7 @@
       <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3">
@@ -2177,7 +2224,7 @@
       <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="3">
@@ -2204,7 +2251,7 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="3">
@@ -2231,7 +2278,7 @@
       <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="3">
@@ -2258,7 +2305,7 @@
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="3">
@@ -2285,7 +2332,7 @@
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="3">
@@ -2312,7 +2359,7 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="3">
@@ -2339,7 +2386,7 @@
       <c r="D39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="3">
@@ -2366,7 +2413,7 @@
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3">
@@ -2393,7 +2440,7 @@
       <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="3">
@@ -2420,7 +2467,7 @@
       <c r="D42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="3">
@@ -2447,7 +2494,7 @@
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="3">
@@ -2474,7 +2521,7 @@
       <c r="D44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="3">
@@ -2501,7 +2548,7 @@
       <c r="D45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="3">
@@ -2528,7 +2575,7 @@
       <c r="D46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F46" s="3">
@@ -2554,7 +2601,7 @@
       <c r="D47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="3">
@@ -2580,7 +2627,7 @@
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F48" s="3">
@@ -2606,7 +2653,7 @@
       <c r="D49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F49" s="3">
@@ -2632,7 +2679,7 @@
       <c r="D50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F50" s="3">
@@ -2658,7 +2705,7 @@
       <c r="D51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F51" s="3">
@@ -2684,7 +2731,7 @@
       <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F52" s="3">
@@ -2710,7 +2757,7 @@
       <c r="D53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F53" s="3">
@@ -2736,16 +2783,16 @@
       <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>160</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>171.9</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -2762,16 +2809,16 @@
       <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>160</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>171.9</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -2788,16 +2835,16 @@
       <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>48</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>181.43</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>8708.64</v>
       </c>
     </row>
@@ -2814,16 +2861,16 @@
       <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>336</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>142.44999999999999</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>47863.199999999997</v>
       </c>
     </row>
@@ -2840,16 +2887,16 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>312</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>157.30000000000001</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>49077.599999999999</v>
       </c>
     </row>
@@ -2866,16 +2913,16 @@
       <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>400</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>194.71</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>77884</v>
       </c>
     </row>
@@ -2892,16 +2939,16 @@
       <c r="D60" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>240</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>184.56</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>44294.400000000001</v>
       </c>
     </row>
@@ -2918,16 +2965,16 @@
       <c r="D61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>64</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>218.45</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>13980.8</v>
       </c>
     </row>
@@ -2944,16 +2991,16 @@
       <c r="D62" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>160</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>171.9</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -2970,16 +3017,16 @@
       <c r="D63" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>160</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>171.9</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -2996,16 +3043,16 @@
       <c r="D64" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>240</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>194.71</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>46730.400000000001</v>
       </c>
     </row>
@@ -3022,16 +3069,16 @@
       <c r="D65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>300</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>184.56</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>55368</v>
       </c>
     </row>
@@ -3048,16 +3095,16 @@
       <c r="D66" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>192</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>218.45</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <v>41942.400000000001</v>
       </c>
     </row>
@@ -3074,16 +3121,16 @@
       <c r="D67" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>240</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>194.71</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>46730.400000000001</v>
       </c>
     </row>
@@ -3100,16 +3147,16 @@
       <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>240</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>184.56</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>44294.400000000001</v>
       </c>
     </row>
@@ -3126,16 +3173,16 @@
       <c r="D69" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>208</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>218.45</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>45437.599999999999</v>
       </c>
     </row>
@@ -3152,16 +3199,16 @@
       <c r="D70" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>208</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>218.45</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>45437.599999999999</v>
       </c>
     </row>
@@ -3178,16 +3225,16 @@
       <c r="D71" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>224</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>287.70999999999998</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>64447.040000000001</v>
       </c>
     </row>
@@ -3204,16 +3251,16 @@
       <c r="D72" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>352</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>182.93</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>64391.360000000001</v>
       </c>
     </row>
@@ -3230,16 +3277,16 @@
       <c r="D73" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>504</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>194.71</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>98133.84</v>
       </c>
     </row>
@@ -3256,16 +3303,16 @@
       <c r="D74" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>504</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>184.56</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>93018.240000000005</v>
       </c>
     </row>
@@ -3282,16 +3329,16 @@
       <c r="D75" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>16</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>218.45</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <v>3495.2</v>
       </c>
     </row>
@@ -3308,16 +3355,16 @@
       <c r="D76" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>112</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>218.45</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="11">
         <v>24466.400000000001</v>
       </c>
     </row>
@@ -3334,16 +3381,16 @@
       <c r="D77" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>300</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="10">
         <v>223.71</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <v>67113</v>
       </c>
     </row>
@@ -3360,16 +3407,16 @@
       <c r="D78" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>152</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>194.71</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="11">
         <v>29595.919999999998</v>
       </c>
     </row>
@@ -3386,16 +3433,16 @@
       <c r="D79" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>252</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="10">
         <v>184.56</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <v>46509.120000000003</v>
       </c>
     </row>
@@ -3412,16 +3459,16 @@
       <c r="D80" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>48</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>208.99</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <v>10031.52</v>
       </c>
     </row>
@@ -3438,16 +3485,16 @@
       <c r="D81" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>208</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="10">
         <v>218.45</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="11">
         <v>45437.599999999999</v>
       </c>
     </row>
@@ -3464,16 +3511,16 @@
       <c r="D82" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>20</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>223.71</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <v>4474.2</v>
       </c>
     </row>
@@ -3490,16 +3537,16 @@
       <c r="D83" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>112</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>150</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <v>16800</v>
       </c>
     </row>
@@ -3516,16 +3563,16 @@
       <c r="D84" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>320</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>182.93</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="11">
         <v>58537.599999999999</v>
       </c>
     </row>
@@ -3542,16 +3589,16 @@
       <c r="D85" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>192</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="10">
         <v>181.43</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>34834.559999999998</v>
       </c>
     </row>
@@ -3568,16 +3615,16 @@
       <c r="D86" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>152</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <v>194.71</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>29595.919999999998</v>
       </c>
     </row>
@@ -3594,16 +3641,16 @@
       <c r="D87" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>96</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="10">
         <v>184.56</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <v>17717.759999999998</v>
       </c>
     </row>
@@ -3620,16 +3667,16 @@
       <c r="D88" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>240</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="10">
         <v>208.99</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <v>50157.599999999999</v>
       </c>
     </row>
@@ -3646,16 +3693,16 @@
       <c r="D89" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>208</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="10">
         <v>218.45</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>45437.599999999999</v>
       </c>
     </row>
@@ -3672,16 +3719,16 @@
       <c r="D90" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <v>176</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="10">
         <v>182.93</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="11">
         <v>32195.68</v>
       </c>
     </row>
@@ -3698,16 +3745,16 @@
       <c r="D91" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <v>36</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="10">
         <v>195.22</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <v>7027.92</v>
       </c>
     </row>
@@ -3724,16 +3771,16 @@
       <c r="D92" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <v>200</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="10">
         <v>194.71</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="11">
         <v>38942</v>
       </c>
     </row>
@@ -3750,16 +3797,16 @@
       <c r="D93" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <v>108</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="10">
         <v>184.56</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="11">
         <v>19932.48</v>
       </c>
     </row>
@@ -3776,16 +3823,16 @@
       <c r="D94" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>240</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="10">
         <v>208.99</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <v>50157.599999999999</v>
       </c>
     </row>
@@ -3802,16 +3849,16 @@
       <c r="D95" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>160</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="10">
         <v>218.45</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>34952</v>
       </c>
     </row>
@@ -3825,19 +3872,19 @@
       <c r="C96" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>20</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="10">
         <v>223.71</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="11">
         <v>4474.2</v>
       </c>
     </row>
@@ -3854,16 +3901,16 @@
       <c r="D97" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>96</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="10">
         <v>150</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <v>14400</v>
       </c>
     </row>
@@ -3880,16 +3927,16 @@
       <c r="D98" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>112</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="10">
         <v>288.70999999999998</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <v>32335.52</v>
       </c>
     </row>
@@ -3906,146 +3953,146 @@
       <c r="D99" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <v>160</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="10">
         <v>181.43</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <v>29028.799999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="14">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="13">
         <v>44155</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="15">
         <v>160</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="15">
         <v>194.71</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="16">
         <v>31153.599999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="14">
+    <row r="101" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="13">
         <v>44155</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="15">
         <v>72</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="15">
         <v>184.56</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="16">
         <v>13288.32</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="14">
+    <row r="102" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="13">
         <v>44155</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="15">
         <v>228</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="15">
         <v>208.99</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="16">
         <v>47649.72</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="14">
+    <row r="103" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="13">
         <v>44155</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="15">
         <v>160</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="15">
         <v>218.45</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103" s="16">
         <v>34952</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="14">
+    <row r="104" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="13">
         <v>44155</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="15">
         <v>320</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="15">
         <v>150</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104" s="16">
         <v>48000</v>
       </c>
     </row>
@@ -4062,16 +4109,16 @@
       <c r="D105" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <v>96</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="10">
         <v>181.43</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="11">
         <v>17417.28</v>
       </c>
     </row>
@@ -4088,16 +4135,16 @@
       <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <v>200</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="10">
         <v>194.71</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="11">
         <v>38942</v>
       </c>
     </row>
@@ -4114,16 +4161,16 @@
       <c r="D107" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>204</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <v>184.56</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="11">
         <v>37650.239999999998</v>
       </c>
     </row>
@@ -4140,16 +4187,16 @@
       <c r="D108" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>160</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="10">
         <v>218.45</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="11">
         <v>34952</v>
       </c>
     </row>
@@ -4166,16 +4213,16 @@
       <c r="D109" t="s">
         <v>42</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <v>208</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="10">
         <v>150</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <v>31200</v>
       </c>
     </row>
@@ -4192,16 +4239,16 @@
       <c r="D110" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>160</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="10">
         <v>287.70999999999998</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="11">
         <v>46033.599999999999</v>
       </c>
     </row>
@@ -4218,16 +4265,16 @@
       <c r="D111" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <v>176</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="10">
         <v>181.43</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <v>31931.68</v>
       </c>
     </row>
@@ -4244,16 +4291,16 @@
       <c r="D112" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <v>456</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="10">
         <v>194.71</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="11">
         <v>88787.76</v>
       </c>
     </row>
@@ -4270,16 +4317,16 @@
       <c r="D113" t="s">
         <v>41</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <v>360</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="10">
         <v>184.56</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <v>66441.600000000006</v>
       </c>
     </row>
@@ -4296,16 +4343,16 @@
       <c r="D114" t="s">
         <v>41</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>120</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="10">
         <v>208.99</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="11">
         <v>25078.799999999999</v>
       </c>
     </row>
@@ -4322,16 +4369,16 @@
       <c r="D115" t="s">
         <v>41</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <v>324</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="10">
         <v>208.99</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <v>67712.759999999995</v>
       </c>
     </row>
@@ -4348,16 +4395,16 @@
       <c r="D116" t="s">
         <v>39</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <v>336</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="10">
         <v>218.45</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="11">
         <v>73399.199999999997</v>
       </c>
     </row>
@@ -4374,16 +4421,16 @@
       <c r="D117" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>176</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>150</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="11">
         <v>26400</v>
       </c>
     </row>
@@ -4400,16 +4447,16 @@
       <c r="D118" t="s">
         <v>37</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>160</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="10">
         <v>171.9</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -4426,16 +4473,16 @@
       <c r="D119" t="s">
         <v>38</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>160</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="10">
         <v>171.9</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="11">
         <v>27504</v>
       </c>
     </row>
@@ -4452,16 +4499,16 @@
       <c r="D120" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <v>240</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="10">
         <v>181.43</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="11">
         <v>43543.199999999997</v>
       </c>
     </row>
@@ -4478,16 +4525,16 @@
       <c r="D121" t="s">
         <v>40</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>304</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="10">
         <v>194.71</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="11">
         <v>59191.839999999997</v>
       </c>
     </row>
@@ -4504,16 +4551,16 @@
       <c r="D122" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>240</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="10">
         <v>184.56</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="11">
         <v>44294.400000000001</v>
       </c>
     </row>
@@ -4530,16 +4577,16 @@
       <c r="D123" t="s">
         <v>41</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>252</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="10">
         <v>208.99</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="11">
         <v>52665.48</v>
       </c>
     </row>
@@ -4556,16 +4603,380 @@
       <c r="D124" t="s">
         <v>39</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>240</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="10">
         <v>218.45</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="11">
+        <v>52428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A125" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F125" s="10">
+        <v>272</v>
+      </c>
+      <c r="G125" s="10">
+        <v>288.70999999999998</v>
+      </c>
+      <c r="H125" s="11">
+        <v>78529.119999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A126" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F126" s="10">
+        <v>204</v>
+      </c>
+      <c r="G126" s="10">
+        <v>184.56</v>
+      </c>
+      <c r="H126" s="11">
+        <v>37650.239999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A127" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F127" s="10">
+        <v>144</v>
+      </c>
+      <c r="G127" s="10">
+        <v>208.99</v>
+      </c>
+      <c r="H127" s="11">
+        <v>30094.560000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A128" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F128" s="10">
+        <v>312</v>
+      </c>
+      <c r="G128" s="10">
+        <v>88.41</v>
+      </c>
+      <c r="H128" s="11">
+        <v>27583.919999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A129" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F129" s="10">
+        <v>312</v>
+      </c>
+      <c r="G129" s="10">
+        <v>94.54</v>
+      </c>
+      <c r="H129" s="11">
+        <v>29496.48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A130" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130" s="10">
+        <v>288</v>
+      </c>
+      <c r="G130" s="10">
+        <v>218.45</v>
+      </c>
+      <c r="H130" s="11">
+        <v>62913.599999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A131" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F131" s="10">
+        <v>160</v>
+      </c>
+      <c r="G131" s="10">
+        <v>287.70999999999998</v>
+      </c>
+      <c r="H131" s="11">
+        <v>46033.599999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A132" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" s="10">
+        <v>160</v>
+      </c>
+      <c r="G132" s="10">
+        <v>288.70999999999998</v>
+      </c>
+      <c r="H132" s="11">
+        <v>46193.599999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A133" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" s="10">
+        <v>160</v>
+      </c>
+      <c r="G133" s="10">
+        <v>181.43</v>
+      </c>
+      <c r="H133" s="11">
+        <v>29028.799999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A134" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" s="10">
+        <v>140</v>
+      </c>
+      <c r="G134" s="10">
+        <v>142.44999999999999</v>
+      </c>
+      <c r="H134" s="11">
+        <v>19943</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A135" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="10">
+        <v>200</v>
+      </c>
+      <c r="G135" s="10">
+        <v>194.71</v>
+      </c>
+      <c r="H135" s="11">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A136" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B136" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136" s="10">
+        <v>264</v>
+      </c>
+      <c r="G136" s="10">
+        <v>184.56</v>
+      </c>
+      <c r="H136" s="11">
+        <v>48723.839999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A137" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" s="10">
+        <v>144</v>
+      </c>
+      <c r="G137" s="10">
+        <v>208.99</v>
+      </c>
+      <c r="H137" s="11">
+        <v>30094.560000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A138" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" t="s">
+        <v>106</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" s="10">
+        <v>240</v>
+      </c>
+      <c r="G138" s="10">
+        <v>218.45</v>
+      </c>
+      <c r="H138" s="11">
         <v>52428</v>
       </c>
     </row>
